--- a/Server/xlsx/student.xlsx
+++ b/Server/xlsx/student.xlsx
@@ -4,33 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowHeight="18465"/>
   </bookViews>
   <sheets>
     <sheet name="course" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">course!$A$1:$E$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">course!$A$1:$E$29</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>唯一编号</t>
   </si>
@@ -74,165 +61,123 @@
     <t>药品1</t>
   </si>
   <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>李旭</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>邢罗丹</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>林帆</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>许马帝</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>刘畅</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>李广光</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>杨溢红</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>谢超</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>李瑞强</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>张院霞</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>邓永胜</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>张莉</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>任春明</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>张伟</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>温雷</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>康蓝艺</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>吴江涛</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>于燕</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>张喜</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>赵勇</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>王艳华</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>杨宇</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>杨旭</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>王文彪</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>吴敏洁</t>
+    <t>29</t>
+  </si>
+  <si>
+    <t>王琰</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>姜海萍</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>尹庆华</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>曾惠文</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>莫根秀</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>唐雅薇</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>宋世旭</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>杨攀</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>刘姣</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>赵悦汝</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>曾月秋</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>乔珍</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>曾欢</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>李桂余</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>李博</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>高仁杰</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>骆东森</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>杨建雄</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -248,26 +193,85 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,6 +283,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -287,106 +322,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,25 +346,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,157 +496,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,6 +537,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -606,39 +569,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,8 +606,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,152 +642,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -859,60 +804,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1198,7 +1140,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1287,13 +1229,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="4">
-        <v>13346253199</v>
+        <v>13230870153</v>
       </c>
       <c r="D5" s="3">
         <v>123456</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1304,13 +1246,13 @@
         <v>17</v>
       </c>
       <c r="C6" s="4">
-        <v>13555011212</v>
+        <v>18652637345</v>
       </c>
       <c r="D6" s="3">
         <v>123456</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1321,13 +1263,13 @@
         <v>19</v>
       </c>
       <c r="C7" s="4">
-        <v>13025736357</v>
+        <v>18609000224</v>
       </c>
       <c r="D7" s="3">
         <v>123456</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1338,13 +1280,13 @@
         <v>21</v>
       </c>
       <c r="C8" s="4">
-        <v>18841412200</v>
+        <v>18172637802</v>
       </c>
       <c r="D8" s="3">
         <v>123456</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1355,7 +1297,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="4">
-        <v>13394819609</v>
+        <v>13655135206</v>
       </c>
       <c r="D9" s="3">
         <v>123456</v>
@@ -1372,7 +1314,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="4">
-        <v>17329931314</v>
+        <v>18652170777</v>
       </c>
       <c r="D10" s="3">
         <v>123456</v>
@@ -1389,7 +1331,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="4">
-        <v>18702391239</v>
+        <v>18095541989</v>
       </c>
       <c r="D11" s="3">
         <v>123456</v>
@@ -1406,7 +1348,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="4">
-        <v>18910323930</v>
+        <v>18779520606</v>
       </c>
       <c r="D12" s="3">
         <v>123456</v>
@@ -1423,7 +1365,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="4">
-        <v>15247317785</v>
+        <v>18974945433</v>
       </c>
       <c r="D13" s="3">
         <v>123456</v>
@@ -1440,7 +1382,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="4">
-        <v>15647820657</v>
+        <v>15500539515</v>
       </c>
       <c r="D14" s="3">
         <v>123456</v>
@@ -1457,7 +1399,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="4">
-        <v>18477431003</v>
+        <v>15778183575</v>
       </c>
       <c r="D15" s="3">
         <v>123456</v>
@@ -1474,7 +1416,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="4">
-        <v>15803822756</v>
+        <v>13109655556</v>
       </c>
       <c r="D16" s="3">
         <v>123456</v>
@@ -1491,7 +1433,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="4">
-        <v>13851786721</v>
+        <v>18161123167</v>
       </c>
       <c r="D17" s="3">
         <v>123456</v>
@@ -1508,13 +1450,13 @@
         <v>41</v>
       </c>
       <c r="C18" s="4">
-        <v>15526755558</v>
+        <v>13535229684</v>
       </c>
       <c r="D18" s="3">
         <v>123456</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1525,7 +1467,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="4">
-        <v>18088652594</v>
+        <v>18704908821</v>
       </c>
       <c r="D19" s="3">
         <v>123456</v>
@@ -1542,7 +1484,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="4">
-        <v>18768637266</v>
+        <v>15319156411</v>
       </c>
       <c r="D20" s="3">
         <v>123456</v>
@@ -1559,7 +1501,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="4">
-        <v>18314562241</v>
+        <v>17607626312</v>
       </c>
       <c r="D21" s="3">
         <v>123456</v>
@@ -1576,136 +1518,52 @@
         <v>49</v>
       </c>
       <c r="C22" s="4">
-        <v>19898787770</v>
+        <v>19120915915</v>
       </c>
       <c r="D22" s="3">
         <v>123456</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="4">
-        <v>15362441778</v>
-      </c>
-      <c r="D23" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E23" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="4">
-        <v>15547509805</v>
-      </c>
-      <c r="D24" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="4">
-        <v>18714553083</v>
-      </c>
-      <c r="D25" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="4">
-        <v>15145006691</v>
-      </c>
-      <c r="D26" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="4">
-        <v>15048034893</v>
-      </c>
-      <c r="D27" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="6">
-        <v>13233180807</v>
-      </c>
-      <c r="D28" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="6">
-        <v>18235130957</v>
-      </c>
-      <c r="D29" s="3">
-        <v>123456</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="23" spans="2:4">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E27">
+  <autoFilter ref="A1:E29">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="B5:B27">

--- a/Server/xlsx/student.xlsx
+++ b/Server/xlsx/student.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18465"/>
+    <workbookView windowWidth="27030" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="course" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
   <si>
     <t>唯一编号</t>
   </si>
@@ -167,6 +167,96 @@
   </si>
   <si>
     <t>杨建雄</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>薛敏静</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>王天一</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>郭超</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>王发达</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>曹文鑫</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>刘畅</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>刘艳</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>兰展鹏</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>陆宣辰</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>李亮</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>李弯弯</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>秦小琴</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>李霞</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>窦友军</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>田艳红</t>
   </si>
 </sst>
 </file>
@@ -174,10 +264,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -207,8 +297,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,8 +342,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,36 +359,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -291,14 +382,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -314,6 +397,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -331,7 +421,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,13 +442,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,163 +550,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,11 +630,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,6 +670,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -588,41 +699,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,6 +718,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -645,145 +735,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,10 +1227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1527,40 +1617,260 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="4">
+        <v>15762702687</v>
+      </c>
+      <c r="D23" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="4">
+        <v>18646311762</v>
+      </c>
+      <c r="D24" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="4">
+        <v>18006350207</v>
+      </c>
+      <c r="D25" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="4">
+        <v>15266671987</v>
+      </c>
+      <c r="D26" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="4">
+        <v>18663004489</v>
+      </c>
+      <c r="D27" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="4">
+        <v>15373262758</v>
+      </c>
+      <c r="D28" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="4">
+        <v>13595712938</v>
+      </c>
+      <c r="D29" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="2">
+        <v>18088855955</v>
+      </c>
+      <c r="D30" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="2">
+        <v>13182263160</v>
+      </c>
+      <c r="D31" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="2">
+        <v>18683529656</v>
+      </c>
+      <c r="D32" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="2">
+        <v>15526225130</v>
+      </c>
+      <c r="D33" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="2">
+        <v>13883458589</v>
+      </c>
+      <c r="D34" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="2">
+        <v>13594250454</v>
+      </c>
+      <c r="D35" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="2">
+        <v>18487272304</v>
+      </c>
+      <c r="D36" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="2">
+        <v>15877922731</v>
+      </c>
+      <c r="D37" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E29">
